--- a/predict.xlsx
+++ b/predict.xlsx
@@ -537,7 +537,7 @@
         <v>63</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="D170" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E170" t="n">
         <v>35</v>
@@ -3339,7 +3339,7 @@
         <v>1</v>
       </c>
       <c r="D171" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E171" t="n">
         <v>24</v>
@@ -3390,7 +3390,7 @@
         <v>4</v>
       </c>
       <c r="D174" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E174" t="n">
         <v>3</v>
@@ -3407,7 +3407,7 @@
         <v>5</v>
       </c>
       <c r="D175" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E175" t="n">
         <v>3</v>
@@ -3424,7 +3424,7 @@
         <v>6</v>
       </c>
       <c r="D176" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E176" t="n">
         <v>10</v>
@@ -3818,7 +3818,7 @@
         <v>13</v>
       </c>
       <c r="E199" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="200">
@@ -6586,7 +6586,7 @@
         <v>0</v>
       </c>
       <c r="D362" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E362" t="n">
         <v>23</v>
@@ -6620,7 +6620,7 @@
         <v>2</v>
       </c>
       <c r="D364" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E364" t="n">
         <v>3</v>
@@ -6637,7 +6637,7 @@
         <v>3</v>
       </c>
       <c r="D365" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E365" t="n">
         <v>22</v>
@@ -6654,7 +6654,7 @@
         <v>4</v>
       </c>
       <c r="D366" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E366" t="n">
         <v>28</v>
@@ -6671,7 +6671,7 @@
         <v>5</v>
       </c>
       <c r="D367" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E367" t="n">
         <v>18</v>
@@ -6688,7 +6688,7 @@
         <v>6</v>
       </c>
       <c r="D368" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E368" t="n">
         <v>43</v>
@@ -6705,7 +6705,7 @@
         <v>7</v>
       </c>
       <c r="D369" t="n">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="E369" t="n">
         <v>109</v>
@@ -6722,7 +6722,7 @@
         <v>8</v>
       </c>
       <c r="D370" t="n">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="E370" t="n">
         <v>313</v>
@@ -6739,7 +6739,7 @@
         <v>9</v>
       </c>
       <c r="D371" t="n">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="E371" t="n">
         <v>699</v>
@@ -6756,7 +6756,7 @@
         <v>10</v>
       </c>
       <c r="D372" t="n">
-        <v>562</v>
+        <v>532</v>
       </c>
       <c r="E372" t="n">
         <v>1021</v>
@@ -6773,7 +6773,7 @@
         <v>11</v>
       </c>
       <c r="D373" t="n">
-        <v>688</v>
+        <v>651</v>
       </c>
       <c r="E373" t="n">
         <v>1244</v>
@@ -6790,7 +6790,7 @@
         <v>12</v>
       </c>
       <c r="D374" t="n">
-        <v>801</v>
+        <v>759</v>
       </c>
       <c r="E374" t="n">
         <v>1582</v>
@@ -6807,7 +6807,7 @@
         <v>13</v>
       </c>
       <c r="D375" t="n">
-        <v>895</v>
+        <v>847</v>
       </c>
       <c r="E375" t="n">
         <v>1646</v>
@@ -6824,7 +6824,7 @@
         <v>14</v>
       </c>
       <c r="D376" t="n">
-        <v>961</v>
+        <v>909</v>
       </c>
       <c r="E376" t="n">
         <v>1579</v>
@@ -6841,7 +6841,7 @@
         <v>15</v>
       </c>
       <c r="D377" t="n">
-        <v>993</v>
+        <v>940</v>
       </c>
       <c r="E377" t="n">
         <v>1670</v>
@@ -6858,7 +6858,7 @@
         <v>16</v>
       </c>
       <c r="D378" t="n">
-        <v>987</v>
+        <v>935</v>
       </c>
       <c r="E378" t="n">
         <v>1608</v>
@@ -6875,7 +6875,7 @@
         <v>17</v>
       </c>
       <c r="D379" t="n">
-        <v>941</v>
+        <v>890</v>
       </c>
       <c r="E379" t="n">
         <v>1489</v>
@@ -6892,7 +6892,7 @@
         <v>18</v>
       </c>
       <c r="D380" t="n">
-        <v>853</v>
+        <v>807</v>
       </c>
       <c r="E380" t="n">
         <v>1599</v>
@@ -6909,7 +6909,7 @@
         <v>19</v>
       </c>
       <c r="D381" t="n">
-        <v>726</v>
+        <v>687</v>
       </c>
       <c r="E381" t="n">
         <v>1525</v>
@@ -6926,7 +6926,7 @@
         <v>20</v>
       </c>
       <c r="D382" t="n">
-        <v>565</v>
+        <v>535</v>
       </c>
       <c r="E382" t="n">
         <v>1220</v>
@@ -6943,7 +6943,7 @@
         <v>21</v>
       </c>
       <c r="D383" t="n">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="E383" t="n">
         <v>744</v>
@@ -6960,7 +6960,7 @@
         <v>22</v>
       </c>
       <c r="D384" t="n">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E384" t="n">
         <v>79</v>
@@ -6994,7 +6994,7 @@
         <v>0</v>
       </c>
       <c r="D386" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -7028,7 +7028,7 @@
         <v>2</v>
       </c>
       <c r="D388" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E388" t="n">
         <v>2</v>
@@ -7045,7 +7045,7 @@
         <v>3</v>
       </c>
       <c r="D389" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E389" t="n">
         <v>17</v>
@@ -7062,7 +7062,7 @@
         <v>4</v>
       </c>
       <c r="D390" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E390" t="n">
         <v>1</v>
@@ -7079,7 +7079,7 @@
         <v>5</v>
       </c>
       <c r="D391" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E391" t="n">
         <v>3</v>
@@ -7096,7 +7096,7 @@
         <v>6</v>
       </c>
       <c r="D392" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E392" t="n">
         <v>26</v>
@@ -7113,7 +7113,7 @@
         <v>7</v>
       </c>
       <c r="D393" t="n">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E393" t="n">
         <v>17</v>
@@ -7130,7 +7130,7 @@
         <v>8</v>
       </c>
       <c r="D394" t="n">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="E394" t="n">
         <v>294</v>
@@ -7147,7 +7147,7 @@
         <v>9</v>
       </c>
       <c r="D395" t="n">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="E395" t="n">
         <v>765</v>
@@ -7164,7 +7164,7 @@
         <v>10</v>
       </c>
       <c r="D396" t="n">
-        <v>526</v>
+        <v>498</v>
       </c>
       <c r="E396" t="n">
         <v>1106</v>
@@ -7181,7 +7181,7 @@
         <v>11</v>
       </c>
       <c r="D397" t="n">
-        <v>655</v>
+        <v>620</v>
       </c>
       <c r="E397" t="n">
         <v>1310</v>
@@ -7198,7 +7198,7 @@
         <v>12</v>
       </c>
       <c r="D398" t="n">
-        <v>773</v>
+        <v>731</v>
       </c>
       <c r="E398" t="n">
         <v>1626</v>
@@ -7215,7 +7215,7 @@
         <v>13</v>
       </c>
       <c r="D399" t="n">
-        <v>871</v>
+        <v>824</v>
       </c>
       <c r="E399" t="n">
         <v>1672</v>
@@ -7232,7 +7232,7 @@
         <v>14</v>
       </c>
       <c r="D400" t="n">
-        <v>941</v>
+        <v>891</v>
       </c>
       <c r="E400" t="n">
         <v>1683</v>
@@ -7249,7 +7249,7 @@
         <v>15</v>
       </c>
       <c r="D401" t="n">
-        <v>977</v>
+        <v>925</v>
       </c>
       <c r="E401" t="n">
         <v>1588</v>
@@ -7266,7 +7266,7 @@
         <v>16</v>
       </c>
       <c r="D402" t="n">
-        <v>972</v>
+        <v>921</v>
       </c>
       <c r="E402" t="n">
         <v>1708</v>
@@ -7283,7 +7283,7 @@
         <v>17</v>
       </c>
       <c r="D403" t="n">
-        <v>925</v>
+        <v>876</v>
       </c>
       <c r="E403" t="n">
         <v>1594</v>
@@ -7300,7 +7300,7 @@
         <v>18</v>
       </c>
       <c r="D404" t="n">
-        <v>835</v>
+        <v>791</v>
       </c>
       <c r="E404" t="n">
         <v>1590</v>
@@ -7317,7 +7317,7 @@
         <v>19</v>
       </c>
       <c r="D405" t="n">
-        <v>706</v>
+        <v>668</v>
       </c>
       <c r="E405" t="n">
         <v>1601</v>
@@ -7334,7 +7334,7 @@
         <v>20</v>
       </c>
       <c r="D406" t="n">
-        <v>544</v>
+        <v>515</v>
       </c>
       <c r="E406" t="n">
         <v>1230</v>
@@ -7351,7 +7351,7 @@
         <v>21</v>
       </c>
       <c r="D407" t="n">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="E407" t="n">
         <v>734</v>
@@ -7368,7 +7368,7 @@
         <v>22</v>
       </c>
       <c r="D408" t="n">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E408" t="n">
         <v>87</v>
@@ -7385,7 +7385,7 @@
         <v>23</v>
       </c>
       <c r="D409" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E409" t="n">
         <v>49</v>
@@ -7402,7 +7402,7 @@
         <v>0</v>
       </c>
       <c r="D410" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E410" t="n">
         <v>18</v>
@@ -7419,7 +7419,7 @@
         <v>1</v>
       </c>
       <c r="D411" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E411" t="n">
         <v>4</v>
@@ -7453,7 +7453,7 @@
         <v>3</v>
       </c>
       <c r="D413" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E413" t="n">
         <v>34</v>
@@ -7470,7 +7470,7 @@
         <v>4</v>
       </c>
       <c r="D414" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E414" t="n">
         <v>9</v>
@@ -7504,7 +7504,7 @@
         <v>6</v>
       </c>
       <c r="D416" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E416" t="n">
         <v>30</v>
@@ -7521,7 +7521,7 @@
         <v>7</v>
       </c>
       <c r="D417" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E417" t="n">
         <v>26</v>
@@ -7538,7 +7538,7 @@
         <v>8</v>
       </c>
       <c r="D418" t="n">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="E418" t="n">
         <v>343</v>
@@ -7555,7 +7555,7 @@
         <v>9</v>
       </c>
       <c r="D419" t="n">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="E419" t="n">
         <v>751</v>
@@ -7572,7 +7572,7 @@
         <v>10</v>
       </c>
       <c r="D420" t="n">
-        <v>512</v>
+        <v>485</v>
       </c>
       <c r="E420" t="n">
         <v>1113</v>
@@ -7589,7 +7589,7 @@
         <v>11</v>
       </c>
       <c r="D421" t="n">
-        <v>641</v>
+        <v>607</v>
       </c>
       <c r="E421" t="n">
         <v>1351</v>
@@ -7606,7 +7606,7 @@
         <v>12</v>
       </c>
       <c r="D422" t="n">
-        <v>760</v>
+        <v>720</v>
       </c>
       <c r="E422" t="n">
         <v>1738</v>
@@ -7623,7 +7623,7 @@
         <v>13</v>
       </c>
       <c r="D423" t="n">
-        <v>861</v>
+        <v>815</v>
       </c>
       <c r="E423" t="n">
         <v>1888</v>
@@ -7640,7 +7640,7 @@
         <v>14</v>
       </c>
       <c r="D424" t="n">
-        <v>936</v>
+        <v>886</v>
       </c>
       <c r="E424" t="n">
         <v>1979</v>
@@ -7657,7 +7657,7 @@
         <v>15</v>
       </c>
       <c r="D425" t="n">
-        <v>976</v>
+        <v>924</v>
       </c>
       <c r="E425" t="n">
         <v>2144</v>
@@ -7674,7 +7674,7 @@
         <v>16</v>
       </c>
       <c r="D426" t="n">
-        <v>978</v>
+        <v>925</v>
       </c>
       <c r="E426" t="n">
         <v>2121</v>
@@ -7691,7 +7691,7 @@
         <v>17</v>
       </c>
       <c r="D427" t="n">
-        <v>936</v>
+        <v>886</v>
       </c>
       <c r="E427" t="n">
         <v>2188</v>
@@ -7708,7 +7708,7 @@
         <v>18</v>
       </c>
       <c r="D428" t="n">
-        <v>852</v>
+        <v>806</v>
       </c>
       <c r="E428" t="n">
         <v>2350</v>
@@ -7725,7 +7725,7 @@
         <v>19</v>
       </c>
       <c r="D429" t="n">
-        <v>726</v>
+        <v>687</v>
       </c>
       <c r="E429" t="n">
         <v>2489</v>
@@ -7742,7 +7742,7 @@
         <v>20</v>
       </c>
       <c r="D430" t="n">
-        <v>565</v>
+        <v>535</v>
       </c>
       <c r="E430" t="n">
         <v>2013</v>
@@ -7759,7 +7759,7 @@
         <v>21</v>
       </c>
       <c r="D431" t="n">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="E431" t="n">
         <v>1176</v>
@@ -7776,7 +7776,7 @@
         <v>22</v>
       </c>
       <c r="D432" t="n">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E432" t="n">
         <v>188</v>
@@ -7810,7 +7810,7 @@
         <v>0</v>
       </c>
       <c r="D434" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E434" t="n">
         <v>18</v>
@@ -7844,7 +7844,7 @@
         <v>2</v>
       </c>
       <c r="D436" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E436" t="n">
         <v>2</v>
@@ -7861,7 +7861,7 @@
         <v>3</v>
       </c>
       <c r="D437" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E437" t="n">
         <v>16</v>
@@ -7878,7 +7878,7 @@
         <v>4</v>
       </c>
       <c r="D438" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E438" t="n">
         <v>3</v>
@@ -7912,7 +7912,7 @@
         <v>6</v>
       </c>
       <c r="D440" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E440" t="n">
         <v>19</v>
@@ -7929,7 +7929,7 @@
         <v>7</v>
       </c>
       <c r="D441" t="n">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E441" t="n">
         <v>34</v>
@@ -7946,7 +7946,7 @@
         <v>8</v>
       </c>
       <c r="D442" t="n">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="E442" t="n">
         <v>379</v>
@@ -7963,7 +7963,7 @@
         <v>9</v>
       </c>
       <c r="D443" t="n">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="E443" t="n">
         <v>917</v>
@@ -7980,7 +7980,7 @@
         <v>10</v>
       </c>
       <c r="D444" t="n">
-        <v>560</v>
+        <v>530</v>
       </c>
       <c r="E444" t="n">
         <v>2052</v>
@@ -7997,7 +7997,7 @@
         <v>11</v>
       </c>
       <c r="D445" t="n">
-        <v>713</v>
+        <v>675</v>
       </c>
       <c r="E445" t="n">
         <v>2325</v>
@@ -8014,7 +8014,7 @@
         <v>12</v>
       </c>
       <c r="D446" t="n">
-        <v>857</v>
+        <v>812</v>
       </c>
       <c r="E446" t="n">
         <v>2849</v>
@@ -8031,7 +8031,7 @@
         <v>13</v>
       </c>
       <c r="D447" t="n">
-        <v>983</v>
+        <v>931</v>
       </c>
       <c r="E447" t="n">
         <v>3016</v>
@@ -8048,7 +8048,7 @@
         <v>14</v>
       </c>
       <c r="D448" t="n">
-        <v>1080</v>
+        <v>1023</v>
       </c>
       <c r="E448" t="n">
         <v>3134</v>
@@ -8065,7 +8065,7 @@
         <v>15</v>
       </c>
       <c r="D449" t="n">
-        <v>1140</v>
+        <v>1079</v>
       </c>
       <c r="E449" t="n">
         <v>3155</v>
@@ -8082,7 +8082,7 @@
         <v>16</v>
       </c>
       <c r="D450" t="n">
-        <v>1154</v>
+        <v>1093</v>
       </c>
       <c r="E450" t="n">
         <v>3241</v>
@@ -8099,7 +8099,7 @@
         <v>17</v>
       </c>
       <c r="D451" t="n">
-        <v>1119</v>
+        <v>1059</v>
       </c>
       <c r="E451" t="n">
         <v>3409</v>
@@ -8116,7 +8116,7 @@
         <v>18</v>
       </c>
       <c r="D452" t="n">
-        <v>1031</v>
+        <v>976</v>
       </c>
       <c r="E452" t="n">
         <v>3740</v>
@@ -8133,7 +8133,7 @@
         <v>19</v>
       </c>
       <c r="D453" t="n">
-        <v>891</v>
+        <v>844</v>
       </c>
       <c r="E453" t="n">
         <v>3825</v>
@@ -8150,7 +8150,7 @@
         <v>20</v>
       </c>
       <c r="D454" t="n">
-        <v>705</v>
+        <v>667</v>
       </c>
       <c r="E454" t="n">
         <v>3214</v>
@@ -8167,7 +8167,7 @@
         <v>21</v>
       </c>
       <c r="D455" t="n">
-        <v>480</v>
+        <v>455</v>
       </c>
       <c r="E455" t="n">
         <v>2143</v>
@@ -8184,7 +8184,7 @@
         <v>22</v>
       </c>
       <c r="D456" t="n">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="E456" t="n">
         <v>319</v>
@@ -8201,7 +8201,7 @@
         <v>23</v>
       </c>
       <c r="D457" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E457" t="n">
         <v>23</v>
@@ -8218,7 +8218,7 @@
         <v>0</v>
       </c>
       <c r="D458" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E458" t="n">
         <v>11</v>
@@ -8235,7 +8235,7 @@
         <v>1</v>
       </c>
       <c r="D459" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E459" t="n">
         <v>6</v>
@@ -8269,7 +8269,7 @@
         <v>3</v>
       </c>
       <c r="D461" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -8286,7 +8286,7 @@
         <v>4</v>
       </c>
       <c r="D462" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E462" t="n">
         <v>3</v>
@@ -8303,7 +8303,7 @@
         <v>5</v>
       </c>
       <c r="D463" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E463" t="n">
         <v>3</v>
@@ -8320,7 +8320,7 @@
         <v>6</v>
       </c>
       <c r="D464" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E464" t="n">
         <v>18</v>
@@ -8337,7 +8337,7 @@
         <v>7</v>
       </c>
       <c r="D465" t="n">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E465" t="n">
         <v>21</v>
@@ -8354,7 +8354,7 @@
         <v>8</v>
       </c>
       <c r="D466" t="n">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="E466" t="n">
         <v>164</v>
@@ -8371,7 +8371,7 @@
         <v>9</v>
       </c>
       <c r="D467" t="n">
-        <v>668</v>
+        <v>632</v>
       </c>
       <c r="E467" t="n">
         <v>284</v>
@@ -8388,7 +8388,7 @@
         <v>10</v>
       </c>
       <c r="D468" t="n">
-        <v>973</v>
+        <v>921</v>
       </c>
       <c r="E468" t="n">
         <v>322</v>
@@ -8405,7 +8405,7 @@
         <v>11</v>
       </c>
       <c r="D469" t="n">
-        <v>1282</v>
+        <v>1214</v>
       </c>
       <c r="E469" t="n">
         <v>348</v>
@@ -8422,7 +8422,7 @@
         <v>12</v>
       </c>
       <c r="D470" t="n">
-        <v>1569</v>
+        <v>1485</v>
       </c>
       <c r="E470" t="n">
         <v>446</v>
@@ -8439,7 +8439,7 @@
         <v>13</v>
       </c>
       <c r="D471" t="n">
-        <v>1805</v>
+        <v>1709</v>
       </c>
       <c r="E471" t="n">
         <v>537</v>
@@ -8456,7 +8456,7 @@
         <v>14</v>
       </c>
       <c r="D472" t="n">
-        <v>1968</v>
+        <v>1863</v>
       </c>
       <c r="E472" t="n">
         <v>531</v>
@@ -8473,7 +8473,7 @@
         <v>15</v>
       </c>
       <c r="D473" t="n">
-        <v>2036</v>
+        <v>1927</v>
       </c>
       <c r="E473" t="n">
         <v>481</v>
@@ -8490,7 +8490,7 @@
         <v>16</v>
       </c>
       <c r="D474" t="n">
-        <v>1996</v>
+        <v>1890</v>
       </c>
       <c r="E474" t="n">
         <v>416</v>
@@ -8507,7 +8507,7 @@
         <v>17</v>
       </c>
       <c r="D475" t="n">
-        <v>1845</v>
+        <v>1747</v>
       </c>
       <c r="E475" t="n">
         <v>393</v>
@@ -8524,7 +8524,7 @@
         <v>18</v>
       </c>
       <c r="D476" t="n">
-        <v>1589</v>
+        <v>1505</v>
       </c>
       <c r="E476" t="n">
         <v>328</v>
@@ -8541,7 +8541,7 @@
         <v>19</v>
       </c>
       <c r="D477" t="n">
-        <v>1248</v>
+        <v>1181</v>
       </c>
       <c r="E477" t="n">
         <v>261</v>
@@ -8558,7 +8558,7 @@
         <v>20</v>
       </c>
       <c r="D478" t="n">
-        <v>857</v>
+        <v>811</v>
       </c>
       <c r="E478" t="n">
         <v>158</v>
@@ -8575,7 +8575,7 @@
         <v>21</v>
       </c>
       <c r="D479" t="n">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="E479" t="n">
         <v>76</v>
@@ -8592,7 +8592,7 @@
         <v>22</v>
       </c>
       <c r="D480" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E480" t="n">
         <v>4</v>
@@ -8626,10 +8626,10 @@
         <v>0</v>
       </c>
       <c r="D482" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E482" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="483">
@@ -8660,7 +8660,7 @@
         <v>2</v>
       </c>
       <c r="D484" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E484" t="n">
         <v>6</v>
@@ -8677,7 +8677,7 @@
         <v>3</v>
       </c>
       <c r="D485" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E485" t="n">
         <v>1</v>
@@ -8694,7 +8694,7 @@
         <v>4</v>
       </c>
       <c r="D486" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E486" t="n">
         <v>1</v>
@@ -8711,7 +8711,7 @@
         <v>5</v>
       </c>
       <c r="D487" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E487" t="n">
         <v>1</v>
@@ -8728,7 +8728,7 @@
         <v>6</v>
       </c>
       <c r="D488" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E488" t="n">
         <v>2</v>
@@ -8745,10 +8745,10 @@
         <v>7</v>
       </c>
       <c r="D489" t="n">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="E489" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="490">
@@ -8762,7 +8762,7 @@
         <v>8</v>
       </c>
       <c r="D490" t="n">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="E490" t="n">
         <v>54</v>
@@ -8779,7 +8779,7 @@
         <v>9</v>
       </c>
       <c r="D491" t="n">
-        <v>686</v>
+        <v>649</v>
       </c>
       <c r="E491" t="n">
         <v>134</v>
@@ -8796,7 +8796,7 @@
         <v>10</v>
       </c>
       <c r="D492" t="n">
-        <v>992</v>
+        <v>939</v>
       </c>
       <c r="E492" t="n">
         <v>226</v>
@@ -8813,7 +8813,7 @@
         <v>11</v>
       </c>
       <c r="D493" t="n">
-        <v>1298</v>
+        <v>1229</v>
       </c>
       <c r="E493" t="n">
         <v>272</v>
@@ -8830,7 +8830,7 @@
         <v>12</v>
       </c>
       <c r="D494" t="n">
-        <v>1573</v>
+        <v>1490</v>
       </c>
       <c r="E494" t="n">
         <v>348</v>
@@ -8847,7 +8847,7 @@
         <v>13</v>
       </c>
       <c r="D495" t="n">
-        <v>1792</v>
+        <v>1696</v>
       </c>
       <c r="E495" t="n">
         <v>412</v>
@@ -8864,7 +8864,7 @@
         <v>14</v>
       </c>
       <c r="D496" t="n">
-        <v>1929</v>
+        <v>1826</v>
       </c>
       <c r="E496" t="n">
         <v>388</v>
@@ -8881,7 +8881,7 @@
         <v>15</v>
       </c>
       <c r="D497" t="n">
-        <v>1964</v>
+        <v>1860</v>
       </c>
       <c r="E497" t="n">
         <v>388</v>
@@ -8898,7 +8898,7 @@
         <v>16</v>
       </c>
       <c r="D498" t="n">
-        <v>1889</v>
+        <v>1788</v>
       </c>
       <c r="E498" t="n">
         <v>278</v>
@@ -8915,7 +8915,7 @@
         <v>17</v>
       </c>
       <c r="D499" t="n">
-        <v>1701</v>
+        <v>1611</v>
       </c>
       <c r="E499" t="n">
         <v>314</v>
@@ -8932,7 +8932,7 @@
         <v>18</v>
       </c>
       <c r="D500" t="n">
-        <v>1414</v>
+        <v>1338</v>
       </c>
       <c r="E500" t="n">
         <v>287</v>
@@ -8949,7 +8949,7 @@
         <v>19</v>
       </c>
       <c r="D501" t="n">
-        <v>1054</v>
+        <v>998</v>
       </c>
       <c r="E501" t="n">
         <v>189</v>
@@ -8966,7 +8966,7 @@
         <v>20</v>
       </c>
       <c r="D502" t="n">
-        <v>666</v>
+        <v>630</v>
       </c>
       <c r="E502" t="n">
         <v>105</v>
@@ -8983,7 +8983,7 @@
         <v>21</v>
       </c>
       <c r="D503" t="n">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="E503" t="n">
         <v>70</v>
@@ -9000,7 +9000,7 @@
         <v>22</v>
       </c>
       <c r="D504" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E504" t="n">
         <v>7</v>
@@ -9017,7 +9017,7 @@
         <v>23</v>
       </c>
       <c r="D505" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E505" t="n">
         <v>10</v>
@@ -9034,7 +9034,7 @@
         <v>0</v>
       </c>
       <c r="D506" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E506" t="n">
         <v>5</v>
@@ -9071,7 +9071,7 @@
         <v>6</v>
       </c>
       <c r="E508" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="509">
@@ -9085,7 +9085,7 @@
         <v>3</v>
       </c>
       <c r="D509" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E509" t="n">
         <v>1</v>
@@ -9102,7 +9102,7 @@
         <v>4</v>
       </c>
       <c r="D510" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E510" t="n">
         <v>5</v>
@@ -9119,7 +9119,7 @@
         <v>5</v>
       </c>
       <c r="D511" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E511" t="n">
         <v>2</v>
@@ -9136,7 +9136,7 @@
         <v>6</v>
       </c>
       <c r="D512" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E512" t="n">
         <v>1</v>
@@ -9153,10 +9153,10 @@
         <v>7</v>
       </c>
       <c r="D513" t="n">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E513" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="514">
@@ -9170,7 +9170,7 @@
         <v>8</v>
       </c>
       <c r="D514" t="n">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="E514" t="n">
         <v>102</v>
@@ -9187,7 +9187,7 @@
         <v>9</v>
       </c>
       <c r="D515" t="n">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="E515" t="n">
         <v>150</v>
@@ -9204,7 +9204,7 @@
         <v>10</v>
       </c>
       <c r="D516" t="n">
-        <v>511</v>
+        <v>483</v>
       </c>
       <c r="E516" t="n">
         <v>237</v>
@@ -9221,7 +9221,7 @@
         <v>11</v>
       </c>
       <c r="D517" t="n">
-        <v>652</v>
+        <v>617</v>
       </c>
       <c r="E517" t="n">
         <v>203</v>
@@ -9238,7 +9238,7 @@
         <v>12</v>
       </c>
       <c r="D518" t="n">
-        <v>783</v>
+        <v>741</v>
       </c>
       <c r="E518" t="n">
         <v>259</v>
@@ -9255,7 +9255,7 @@
         <v>13</v>
       </c>
       <c r="D519" t="n">
-        <v>894</v>
+        <v>847</v>
       </c>
       <c r="E519" t="n">
         <v>307</v>
@@ -9272,7 +9272,7 @@
         <v>14</v>
       </c>
       <c r="D520" t="n">
-        <v>976</v>
+        <v>924</v>
       </c>
       <c r="E520" t="n">
         <v>255</v>
@@ -9289,7 +9289,7 @@
         <v>15</v>
       </c>
       <c r="D521" t="n">
-        <v>1021</v>
+        <v>966</v>
       </c>
       <c r="E521" t="n">
         <v>247</v>
@@ -9306,7 +9306,7 @@
         <v>16</v>
       </c>
       <c r="D522" t="n">
-        <v>1021</v>
+        <v>966</v>
       </c>
       <c r="E522" t="n">
         <v>255</v>
@@ -9323,7 +9323,7 @@
         <v>17</v>
       </c>
       <c r="D523" t="n">
-        <v>973</v>
+        <v>921</v>
       </c>
       <c r="E523" t="n">
         <v>228</v>
@@ -9340,7 +9340,7 @@
         <v>18</v>
       </c>
       <c r="D524" t="n">
-        <v>877</v>
+        <v>830</v>
       </c>
       <c r="E524" t="n">
         <v>283</v>
@@ -9357,7 +9357,7 @@
         <v>19</v>
       </c>
       <c r="D525" t="n">
-        <v>737</v>
+        <v>698</v>
       </c>
       <c r="E525" t="n">
         <v>184</v>
@@ -9374,7 +9374,7 @@
         <v>20</v>
       </c>
       <c r="D526" t="n">
-        <v>561</v>
+        <v>531</v>
       </c>
       <c r="E526" t="n">
         <v>123</v>
@@ -9391,7 +9391,7 @@
         <v>21</v>
       </c>
       <c r="D527" t="n">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="E527" t="n">
         <v>68</v>
@@ -9408,7 +9408,7 @@
         <v>22</v>
       </c>
       <c r="D528" t="n">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E528" t="n">
         <v>18</v>
@@ -9425,7 +9425,7 @@
         <v>23</v>
       </c>
       <c r="D529" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E529" t="n">
         <v>8</v>
@@ -9442,7 +9442,7 @@
         <v>0</v>
       </c>
       <c r="D530" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E530" t="n">
         <v>5</v>
@@ -9476,7 +9476,7 @@
         <v>2</v>
       </c>
       <c r="D532" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E532" t="n">
         <v>1</v>
@@ -9493,10 +9493,10 @@
         <v>3</v>
       </c>
       <c r="D533" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E533" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="534">
@@ -9510,7 +9510,7 @@
         <v>4</v>
       </c>
       <c r="D534" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E534" t="n">
         <v>1</v>
@@ -9527,7 +9527,7 @@
         <v>5</v>
       </c>
       <c r="D535" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E535" t="n">
         <v>1</v>
@@ -9544,7 +9544,7 @@
         <v>6</v>
       </c>
       <c r="D536" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E536" t="n">
         <v>1</v>
@@ -9561,7 +9561,7 @@
         <v>7</v>
       </c>
       <c r="D537" t="n">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E537" t="n">
         <v>1</v>
@@ -9578,7 +9578,7 @@
         <v>8</v>
       </c>
       <c r="D538" t="n">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="E538" t="n">
         <v>117</v>
@@ -9595,7 +9595,7 @@
         <v>9</v>
       </c>
       <c r="D539" t="n">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="E539" t="n">
         <v>140</v>
@@ -9612,7 +9612,7 @@
         <v>10</v>
       </c>
       <c r="D540" t="n">
-        <v>501</v>
+        <v>475</v>
       </c>
       <c r="E540" t="n">
         <v>218</v>
@@ -9629,7 +9629,7 @@
         <v>11</v>
       </c>
       <c r="D541" t="n">
-        <v>634</v>
+        <v>600</v>
       </c>
       <c r="E541" t="n">
         <v>215</v>
@@ -9646,7 +9646,7 @@
         <v>12</v>
       </c>
       <c r="D542" t="n">
-        <v>757</v>
+        <v>716</v>
       </c>
       <c r="E542" t="n">
         <v>296</v>
@@ -9663,7 +9663,7 @@
         <v>13</v>
       </c>
       <c r="D543" t="n">
-        <v>859</v>
+        <v>813</v>
       </c>
       <c r="E543" t="n">
         <v>341</v>
@@ -9680,7 +9680,7 @@
         <v>14</v>
       </c>
       <c r="D544" t="n">
-        <v>933</v>
+        <v>883</v>
       </c>
       <c r="E544" t="n">
         <v>273</v>
@@ -9697,7 +9697,7 @@
         <v>15</v>
       </c>
       <c r="D545" t="n">
-        <v>971</v>
+        <v>920</v>
       </c>
       <c r="E545" t="n">
         <v>283</v>
@@ -9714,7 +9714,7 @@
         <v>16</v>
       </c>
       <c r="D546" t="n">
-        <v>968</v>
+        <v>917</v>
       </c>
       <c r="E546" t="n">
         <v>287</v>
@@ -9731,7 +9731,7 @@
         <v>17</v>
       </c>
       <c r="D547" t="n">
-        <v>920</v>
+        <v>871</v>
       </c>
       <c r="E547" t="n">
         <v>254</v>
@@ -9748,7 +9748,7 @@
         <v>18</v>
       </c>
       <c r="D548" t="n">
-        <v>828</v>
+        <v>784</v>
       </c>
       <c r="E548" t="n">
         <v>227</v>
@@ -9765,7 +9765,7 @@
         <v>19</v>
       </c>
       <c r="D549" t="n">
-        <v>695</v>
+        <v>658</v>
       </c>
       <c r="E549" t="n">
         <v>227</v>
@@ -9782,7 +9782,7 @@
         <v>20</v>
       </c>
       <c r="D550" t="n">
-        <v>529</v>
+        <v>501</v>
       </c>
       <c r="E550" t="n">
         <v>117</v>
@@ -9799,7 +9799,7 @@
         <v>21</v>
       </c>
       <c r="D551" t="n">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="E551" t="n">
         <v>70</v>
@@ -9816,7 +9816,7 @@
         <v>22</v>
       </c>
       <c r="D552" t="n">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E552" t="n">
         <v>2</v>
@@ -9850,7 +9850,7 @@
         <v>0</v>
       </c>
       <c r="D554" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E554" t="n">
         <v>3</v>
@@ -9884,7 +9884,7 @@
         <v>2</v>
       </c>
       <c r="D556" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E556" t="n">
         <v>1</v>
@@ -9901,7 +9901,7 @@
         <v>3</v>
       </c>
       <c r="D557" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E557" t="n">
         <v>0</v>
@@ -9918,7 +9918,7 @@
         <v>4</v>
       </c>
       <c r="D558" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E558" t="n">
         <v>2</v>
@@ -9935,7 +9935,7 @@
         <v>5</v>
       </c>
       <c r="D559" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E559" t="n">
         <v>1</v>
@@ -9952,7 +9952,7 @@
         <v>6</v>
       </c>
       <c r="D560" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E560" t="n">
         <v>1</v>
@@ -9969,7 +9969,7 @@
         <v>7</v>
       </c>
       <c r="D561" t="n">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E561" t="n">
         <v>1</v>
@@ -9986,7 +9986,7 @@
         <v>8</v>
       </c>
       <c r="D562" t="n">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="E562" t="n">
         <v>100</v>
@@ -10003,7 +10003,7 @@
         <v>9</v>
       </c>
       <c r="D563" t="n">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="E563" t="n">
         <v>193</v>
@@ -10020,7 +10020,7 @@
         <v>10</v>
       </c>
       <c r="D564" t="n">
-        <v>489</v>
+        <v>463</v>
       </c>
       <c r="E564" t="n">
         <v>242</v>
@@ -10037,7 +10037,7 @@
         <v>11</v>
       </c>
       <c r="D565" t="n">
-        <v>616</v>
+        <v>583</v>
       </c>
       <c r="E565" t="n">
         <v>280</v>
@@ -10054,7 +10054,7 @@
         <v>12</v>
       </c>
       <c r="D566" t="n">
-        <v>734</v>
+        <v>695</v>
       </c>
       <c r="E566" t="n">
         <v>276</v>
@@ -10071,7 +10071,7 @@
         <v>13</v>
       </c>
       <c r="D567" t="n">
-        <v>833</v>
+        <v>789</v>
       </c>
       <c r="E567" t="n">
         <v>321</v>
@@ -10088,7 +10088,7 @@
         <v>14</v>
       </c>
       <c r="D568" t="n">
-        <v>906</v>
+        <v>857</v>
       </c>
       <c r="E568" t="n">
         <v>298</v>
@@ -10105,7 +10105,7 @@
         <v>15</v>
       </c>
       <c r="D569" t="n">
-        <v>945</v>
+        <v>894</v>
       </c>
       <c r="E569" t="n">
         <v>311</v>
@@ -10122,7 +10122,7 @@
         <v>16</v>
       </c>
       <c r="D570" t="n">
-        <v>944</v>
+        <v>894</v>
       </c>
       <c r="E570" t="n">
         <v>273</v>
@@ -10139,7 +10139,7 @@
         <v>17</v>
       </c>
       <c r="D571" t="n">
-        <v>902</v>
+        <v>854</v>
       </c>
       <c r="E571" t="n">
         <v>281</v>
@@ -10156,7 +10156,7 @@
         <v>18</v>
       </c>
       <c r="D572" t="n">
-        <v>816</v>
+        <v>772</v>
       </c>
       <c r="E572" t="n">
         <v>280</v>
@@ -10173,7 +10173,7 @@
         <v>19</v>
       </c>
       <c r="D573" t="n">
-        <v>690</v>
+        <v>653</v>
       </c>
       <c r="E573" t="n">
         <v>272</v>
@@ -10190,7 +10190,7 @@
         <v>20</v>
       </c>
       <c r="D574" t="n">
-        <v>531</v>
+        <v>502</v>
       </c>
       <c r="E574" t="n">
         <v>164</v>
@@ -10207,7 +10207,7 @@
         <v>21</v>
       </c>
       <c r="D575" t="n">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="E575" t="n">
         <v>76</v>
@@ -10224,7 +10224,7 @@
         <v>22</v>
       </c>
       <c r="D576" t="n">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E576" t="n">
         <v>4</v>
@@ -10241,7 +10241,7 @@
         <v>23</v>
       </c>
       <c r="D577" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E577" t="n">
         <v>1</v>
@@ -10258,7 +10258,7 @@
         <v>0</v>
       </c>
       <c r="D578" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E578" t="n">
         <v>2</v>
@@ -10292,7 +10292,7 @@
         <v>2</v>
       </c>
       <c r="D580" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E580" t="n">
         <v>3</v>
@@ -10309,10 +10309,10 @@
         <v>3</v>
       </c>
       <c r="D581" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E581" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="582">
@@ -10326,10 +10326,10 @@
         <v>4</v>
       </c>
       <c r="D582" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E582" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="583">
@@ -10343,7 +10343,7 @@
         <v>5</v>
       </c>
       <c r="D583" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E583" t="n">
         <v>1</v>
@@ -10360,7 +10360,7 @@
         <v>6</v>
       </c>
       <c r="D584" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E584" t="n">
         <v>1</v>
@@ -10377,10 +10377,10 @@
         <v>7</v>
       </c>
       <c r="D585" t="n">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E585" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="586">
@@ -10394,7 +10394,7 @@
         <v>8</v>
       </c>
       <c r="D586" t="n">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="E586" t="n">
         <v>112</v>
@@ -10411,7 +10411,7 @@
         <v>9</v>
       </c>
       <c r="D587" t="n">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="E587" t="n">
         <v>149</v>
@@ -10428,7 +10428,7 @@
         <v>10</v>
       </c>
       <c r="D588" t="n">
-        <v>502</v>
+        <v>475</v>
       </c>
       <c r="E588" t="n">
         <v>219</v>
@@ -10445,7 +10445,7 @@
         <v>11</v>
       </c>
       <c r="D589" t="n">
-        <v>641</v>
+        <v>607</v>
       </c>
       <c r="E589" t="n">
         <v>283</v>
@@ -10462,7 +10462,7 @@
         <v>12</v>
       </c>
       <c r="D590" t="n">
-        <v>773</v>
+        <v>731</v>
       </c>
       <c r="E590" t="n">
         <v>295</v>
@@ -10479,7 +10479,7 @@
         <v>13</v>
       </c>
       <c r="D591" t="n">
-        <v>888</v>
+        <v>841</v>
       </c>
       <c r="E591" t="n">
         <v>364</v>
@@ -10496,7 +10496,7 @@
         <v>14</v>
       </c>
       <c r="D592" t="n">
-        <v>979</v>
+        <v>927</v>
       </c>
       <c r="E592" t="n">
         <v>324</v>
@@ -10513,7 +10513,7 @@
         <v>15</v>
       </c>
       <c r="D593" t="n">
-        <v>1036</v>
+        <v>981</v>
       </c>
       <c r="E593" t="n">
         <v>290</v>
@@ -10530,7 +10530,7 @@
         <v>16</v>
       </c>
       <c r="D594" t="n">
-        <v>1053</v>
+        <v>997</v>
       </c>
       <c r="E594" t="n">
         <v>278</v>
@@ -10547,7 +10547,7 @@
         <v>17</v>
       </c>
       <c r="D595" t="n">
-        <v>1026</v>
+        <v>971</v>
       </c>
       <c r="E595" t="n">
         <v>245</v>
@@ -10564,7 +10564,7 @@
         <v>18</v>
       </c>
       <c r="D596" t="n">
-        <v>951</v>
+        <v>900</v>
       </c>
       <c r="E596" t="n">
         <v>322</v>
@@ -10581,7 +10581,7 @@
         <v>19</v>
       </c>
       <c r="D597" t="n">
-        <v>829</v>
+        <v>785</v>
       </c>
       <c r="E597" t="n">
         <v>225</v>
@@ -10598,7 +10598,7 @@
         <v>20</v>
       </c>
       <c r="D598" t="n">
-        <v>663</v>
+        <v>628</v>
       </c>
       <c r="E598" t="n">
         <v>177</v>
@@ -10615,7 +10615,7 @@
         <v>21</v>
       </c>
       <c r="D599" t="n">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="E599" t="n">
         <v>92</v>
@@ -10632,7 +10632,7 @@
         <v>22</v>
       </c>
       <c r="D600" t="n">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="E600" t="n">
         <v>2</v>
@@ -10666,7 +10666,7 @@
         <v>0</v>
       </c>
       <c r="D602" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E602" t="n">
         <v>1</v>
@@ -10683,7 +10683,7 @@
         <v>1</v>
       </c>
       <c r="D603" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E603" t="n">
         <v>1</v>
@@ -10700,7 +10700,7 @@
         <v>2</v>
       </c>
       <c r="D604" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E604" t="n">
         <v>8</v>
@@ -10717,7 +10717,7 @@
         <v>3</v>
       </c>
       <c r="D605" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E605" t="n">
         <v>4</v>
@@ -10734,7 +10734,7 @@
         <v>4</v>
       </c>
       <c r="D606" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E606" t="n">
         <v>1</v>
@@ -10751,7 +10751,7 @@
         <v>5</v>
       </c>
       <c r="D607" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E607" t="n">
         <v>1</v>
@@ -10768,7 +10768,7 @@
         <v>6</v>
       </c>
       <c r="D608" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E608" t="n">
         <v>1</v>
@@ -10785,10 +10785,10 @@
         <v>7</v>
       </c>
       <c r="D609" t="n">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E609" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="610">
@@ -10802,7 +10802,7 @@
         <v>8</v>
       </c>
       <c r="D610" t="n">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="E610" t="n">
         <v>112</v>
@@ -10819,7 +10819,7 @@
         <v>9</v>
       </c>
       <c r="D611" t="n">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="E611" t="n">
         <v>196</v>
@@ -10836,7 +10836,7 @@
         <v>10</v>
       </c>
       <c r="D612" t="n">
-        <v>569</v>
+        <v>539</v>
       </c>
       <c r="E612" t="n">
         <v>244</v>
@@ -10853,7 +10853,7 @@
         <v>11</v>
       </c>
       <c r="D613" t="n">
-        <v>731</v>
+        <v>692</v>
       </c>
       <c r="E613" t="n">
         <v>300</v>
@@ -10870,7 +10870,7 @@
         <v>12</v>
       </c>
       <c r="D614" t="n">
-        <v>888</v>
+        <v>841</v>
       </c>
       <c r="E614" t="n">
         <v>319</v>
@@ -10887,7 +10887,7 @@
         <v>13</v>
       </c>
       <c r="D615" t="n">
-        <v>1030</v>
+        <v>975</v>
       </c>
       <c r="E615" t="n">
         <v>390</v>
@@ -10904,7 +10904,7 @@
         <v>14</v>
       </c>
       <c r="D616" t="n">
-        <v>1145</v>
+        <v>1084</v>
       </c>
       <c r="E616" t="n">
         <v>323</v>
@@ -10921,7 +10921,7 @@
         <v>15</v>
       </c>
       <c r="D617" t="n">
-        <v>1225</v>
+        <v>1160</v>
       </c>
       <c r="E617" t="n">
         <v>296</v>
@@ -10938,7 +10938,7 @@
         <v>16</v>
       </c>
       <c r="D618" t="n">
-        <v>1260</v>
+        <v>1193</v>
       </c>
       <c r="E618" t="n">
         <v>343</v>
@@ -10955,7 +10955,7 @@
         <v>17</v>
       </c>
       <c r="D619" t="n">
-        <v>1243</v>
+        <v>1176</v>
       </c>
       <c r="E619" t="n">
         <v>287</v>
@@ -10972,7 +10972,7 @@
         <v>18</v>
       </c>
       <c r="D620" t="n">
-        <v>1168</v>
+        <v>1106</v>
       </c>
       <c r="E620" t="n">
         <v>345</v>
@@ -10989,7 +10989,7 @@
         <v>19</v>
       </c>
       <c r="D621" t="n">
-        <v>1034</v>
+        <v>979</v>
       </c>
       <c r="E621" t="n">
         <v>305</v>
@@ -11006,7 +11006,7 @@
         <v>20</v>
       </c>
       <c r="D622" t="n">
-        <v>841</v>
+        <v>796</v>
       </c>
       <c r="E622" t="n">
         <v>179</v>
@@ -11023,7 +11023,7 @@
         <v>21</v>
       </c>
       <c r="D623" t="n">
-        <v>593</v>
+        <v>562</v>
       </c>
       <c r="E623" t="n">
         <v>75</v>
@@ -11040,7 +11040,7 @@
         <v>22</v>
       </c>
       <c r="D624" t="n">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="E624" t="n">
         <v>3</v>
@@ -11057,7 +11057,7 @@
         <v>23</v>
       </c>
       <c r="D625" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E625" t="n">
         <v>1</v>
@@ -11091,7 +11091,7 @@
         <v>1</v>
       </c>
       <c r="D627" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E627" t="n">
         <v>4</v>
@@ -11108,7 +11108,7 @@
         <v>2</v>
       </c>
       <c r="D628" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E628" t="n">
         <v>3</v>
@@ -11125,7 +11125,7 @@
         <v>3</v>
       </c>
       <c r="D629" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E629" t="n">
         <v>0</v>
@@ -11142,7 +11142,7 @@
         <v>4</v>
       </c>
       <c r="D630" t="n">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E630" t="n">
         <v>2</v>
@@ -11159,7 +11159,7 @@
         <v>5</v>
       </c>
       <c r="D631" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E631" t="n">
         <v>1</v>
@@ -11176,7 +11176,7 @@
         <v>6</v>
       </c>
       <c r="D632" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E632" t="n">
         <v>2</v>
@@ -11193,7 +11193,7 @@
         <v>7</v>
       </c>
       <c r="D633" t="n">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E633" t="n">
         <v>0</v>
@@ -11210,7 +11210,7 @@
         <v>8</v>
       </c>
       <c r="D634" t="n">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="E634" t="n">
         <v>72</v>
@@ -11227,7 +11227,7 @@
         <v>9</v>
       </c>
       <c r="D635" t="n">
-        <v>728</v>
+        <v>689</v>
       </c>
       <c r="E635" t="n">
         <v>145</v>
@@ -11244,7 +11244,7 @@
         <v>10</v>
       </c>
       <c r="D636" t="n">
-        <v>1081</v>
+        <v>1023</v>
       </c>
       <c r="E636" t="n">
         <v>238</v>
@@ -11261,7 +11261,7 @@
         <v>11</v>
       </c>
       <c r="D637" t="n">
-        <v>1445</v>
+        <v>1367</v>
       </c>
       <c r="E637" t="n">
         <v>344</v>
@@ -11278,7 +11278,7 @@
         <v>12</v>
       </c>
       <c r="D638" t="n">
-        <v>1787</v>
+        <v>1692</v>
       </c>
       <c r="E638" t="n">
         <v>394</v>
@@ -11295,7 +11295,7 @@
         <v>13</v>
       </c>
       <c r="D639" t="n">
-        <v>2077</v>
+        <v>1966</v>
       </c>
       <c r="E639" t="n">
         <v>434</v>
@@ -11312,7 +11312,7 @@
         <v>14</v>
       </c>
       <c r="D640" t="n">
-        <v>2285</v>
+        <v>2164</v>
       </c>
       <c r="E640" t="n">
         <v>380</v>
@@ -11329,7 +11329,7 @@
         <v>15</v>
       </c>
       <c r="D641" t="n">
-        <v>2389</v>
+        <v>2261</v>
       </c>
       <c r="E641" t="n">
         <v>396</v>
@@ -11346,7 +11346,7 @@
         <v>16</v>
       </c>
       <c r="D642" t="n">
-        <v>2369</v>
+        <v>2243</v>
       </c>
       <c r="E642" t="n">
         <v>402</v>
@@ -11363,7 +11363,7 @@
         <v>17</v>
       </c>
       <c r="D643" t="n">
-        <v>2221</v>
+        <v>2102</v>
       </c>
       <c r="E643" t="n">
         <v>366</v>
@@ -11380,7 +11380,7 @@
         <v>18</v>
       </c>
       <c r="D644" t="n">
-        <v>1948</v>
+        <v>1844</v>
       </c>
       <c r="E644" t="n">
         <v>399</v>
@@ -11397,7 +11397,7 @@
         <v>19</v>
       </c>
       <c r="D645" t="n">
-        <v>1571</v>
+        <v>1487</v>
       </c>
       <c r="E645" t="n">
         <v>277</v>
@@ -11414,7 +11414,7 @@
         <v>20</v>
       </c>
       <c r="D646" t="n">
-        <v>1127</v>
+        <v>1067</v>
       </c>
       <c r="E646" t="n">
         <v>171</v>
@@ -11431,7 +11431,7 @@
         <v>21</v>
       </c>
       <c r="D647" t="n">
-        <v>672</v>
+        <v>636</v>
       </c>
       <c r="E647" t="n">
         <v>93</v>
@@ -11448,7 +11448,7 @@
         <v>22</v>
       </c>
       <c r="D648" t="n">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="E648" t="n">
         <v>4</v>
@@ -11465,7 +11465,7 @@
         <v>23</v>
       </c>
       <c r="D649" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E649" t="n">
         <v>1</v>
@@ -11499,7 +11499,7 @@
         <v>1</v>
       </c>
       <c r="D651" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E651" t="n">
         <v>5</v>
@@ -11516,7 +11516,7 @@
         <v>2</v>
       </c>
       <c r="D652" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E652" t="n">
         <v>3</v>
@@ -11536,7 +11536,7 @@
         <v>28</v>
       </c>
       <c r="E653" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="654">
@@ -11550,7 +11550,7 @@
         <v>4</v>
       </c>
       <c r="D654" t="n">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E654" t="n">
         <v>1</v>
@@ -11567,7 +11567,7 @@
         <v>5</v>
       </c>
       <c r="D655" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E655" t="n">
         <v>1</v>
@@ -11584,7 +11584,7 @@
         <v>6</v>
       </c>
       <c r="D656" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E656" t="n">
         <v>2</v>
@@ -11601,7 +11601,7 @@
         <v>7</v>
       </c>
       <c r="D657" t="n">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E657" t="n">
         <v>2</v>
@@ -11618,7 +11618,7 @@
         <v>8</v>
       </c>
       <c r="D658" t="n">
-        <v>447</v>
+        <v>424</v>
       </c>
       <c r="E658" t="n">
         <v>50</v>
@@ -11635,7 +11635,7 @@
         <v>9</v>
       </c>
       <c r="D659" t="n">
-        <v>775</v>
+        <v>734</v>
       </c>
       <c r="E659" t="n">
         <v>84</v>
@@ -11652,7 +11652,7 @@
         <v>10</v>
       </c>
       <c r="D660" t="n">
-        <v>1137</v>
+        <v>1077</v>
       </c>
       <c r="E660" t="n">
         <v>211</v>
@@ -11669,7 +11669,7 @@
         <v>11</v>
       </c>
       <c r="D661" t="n">
-        <v>1502</v>
+        <v>1423</v>
       </c>
       <c r="E661" t="n">
         <v>288</v>
@@ -11686,7 +11686,7 @@
         <v>12</v>
       </c>
       <c r="D662" t="n">
-        <v>1838</v>
+        <v>1740</v>
       </c>
       <c r="E662" t="n">
         <v>345</v>
@@ -11703,7 +11703,7 @@
         <v>13</v>
       </c>
       <c r="D663" t="n">
-        <v>2110</v>
+        <v>1997</v>
       </c>
       <c r="E663" t="n">
         <v>351</v>
@@ -11720,7 +11720,7 @@
         <v>14</v>
       </c>
       <c r="D664" t="n">
-        <v>2290</v>
+        <v>2167</v>
       </c>
       <c r="E664" t="n">
         <v>377</v>
@@ -11737,7 +11737,7 @@
         <v>15</v>
       </c>
       <c r="D665" t="n">
-        <v>2354</v>
+        <v>2228</v>
       </c>
       <c r="E665" t="n">
         <v>374</v>
@@ -11754,7 +11754,7 @@
         <v>16</v>
       </c>
       <c r="D666" t="n">
-        <v>2287</v>
+        <v>2165</v>
       </c>
       <c r="E666" t="n">
         <v>384</v>
@@ -11771,7 +11771,7 @@
         <v>17</v>
       </c>
       <c r="D667" t="n">
-        <v>2089</v>
+        <v>1977</v>
       </c>
       <c r="E667" t="n">
         <v>354</v>
@@ -11788,7 +11788,7 @@
         <v>18</v>
       </c>
       <c r="D668" t="n">
-        <v>1768</v>
+        <v>1674</v>
       </c>
       <c r="E668" t="n">
         <v>244</v>
@@ -11805,7 +11805,7 @@
         <v>19</v>
       </c>
       <c r="D669" t="n">
-        <v>1355</v>
+        <v>1283</v>
       </c>
       <c r="E669" t="n">
         <v>225</v>
@@ -11822,7 +11822,7 @@
         <v>20</v>
       </c>
       <c r="D670" t="n">
-        <v>898</v>
+        <v>850</v>
       </c>
       <c r="E670" t="n">
         <v>138</v>
@@ -11839,7 +11839,7 @@
         <v>21</v>
       </c>
       <c r="D671" t="n">
-        <v>467</v>
+        <v>443</v>
       </c>
       <c r="E671" t="n">
         <v>85</v>
@@ -11856,7 +11856,7 @@
         <v>22</v>
       </c>
       <c r="D672" t="n">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E672" t="n">
         <v>8</v>
@@ -11873,7 +11873,7 @@
         <v>23</v>
       </c>
       <c r="D673" t="n">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E673" t="n">
         <v>10</v>
@@ -11893,7 +11893,7 @@
         <v>1</v>
       </c>
       <c r="E674" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675">
@@ -12743,7 +12743,7 @@
         <v>1</v>
       </c>
       <c r="E724" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="725">

--- a/predict.xlsx
+++ b/predict.xlsx
@@ -466,10 +466,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1211.206698497187</v>
+        <v>1453.990183020146</v>
       </c>
       <c r="E2" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -483,10 +483,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1199.644225302809</v>
+        <v>1456.206610894577</v>
       </c>
       <c r="E3" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -500,10 +500,10 @@
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>1192.429997515581</v>
+        <v>1447.861918442749</v>
       </c>
       <c r="E4" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -517,10 +517,10 @@
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>1194.359470243905</v>
+        <v>1434.282617703683</v>
       </c>
       <c r="E5" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -534,10 +534,10 @@
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>1154.361043301701</v>
+        <v>1364.264424285716</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -551,10 +551,10 @@
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>1182.050054143946</v>
+        <v>1353.076919954738</v>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -568,10 +568,10 @@
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>1185.151529230235</v>
+        <v>1308.004905362194</v>
       </c>
       <c r="E8" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -585,10 +585,10 @@
         <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>1154.954198577496</v>
+        <v>1224.098031724867</v>
       </c>
       <c r="E9" t="n">
-        <v>75</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
@@ -602,10 +602,10 @@
         <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>1122.791359464667</v>
+        <v>1137.402541891764</v>
       </c>
       <c r="E10" t="n">
-        <v>342</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11">
@@ -619,10 +619,10 @@
         <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>1159.380220489098</v>
+        <v>1122.512852173527</v>
       </c>
       <c r="E11" t="n">
-        <v>857</v>
+        <v>896</v>
       </c>
     </row>
     <row r="12">
@@ -636,10 +636,10 @@
         <v>10</v>
       </c>
       <c r="D12" t="n">
-        <v>1314.140959055037</v>
+        <v>1233.912925811664</v>
       </c>
       <c r="E12" t="n">
-        <v>2164</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="13">
@@ -653,10 +653,10 @@
         <v>11</v>
       </c>
       <c r="D13" t="n">
-        <v>1511.799394720417</v>
+        <v>1398.196488254311</v>
       </c>
       <c r="E13" t="n">
-        <v>2696</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="14">
@@ -670,10 +670,10 @@
         <v>12</v>
       </c>
       <c r="D14" t="n">
-        <v>1635.479424874441</v>
+        <v>1497.289399230321</v>
       </c>
       <c r="E14" t="n">
-        <v>3407</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="15">
@@ -687,10 +687,10 @@
         <v>13</v>
       </c>
       <c r="D15" t="n">
-        <v>1677.088381341814</v>
+        <v>1525.326633744281</v>
       </c>
       <c r="E15" t="n">
-        <v>3790</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="16">
@@ -704,10 +704,10 @@
         <v>14</v>
       </c>
       <c r="D16" t="n">
-        <v>1690.851149440695</v>
+        <v>1537.967218660436</v>
       </c>
       <c r="E16" t="n">
-        <v>4195</v>
+        <v>3662</v>
       </c>
     </row>
     <row r="17">
@@ -721,10 +721,10 @@
         <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>1680.774432559044</v>
+        <v>1539.24447275385</v>
       </c>
       <c r="E17" t="n">
-        <v>4417</v>
+        <v>4001</v>
       </c>
     </row>
     <row r="18">
@@ -738,10 +738,10 @@
         <v>16</v>
       </c>
       <c r="D18" t="n">
-        <v>1597.180717282794</v>
+        <v>1477.086938526282</v>
       </c>
       <c r="E18" t="n">
-        <v>4333</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="19">
@@ -755,10 +755,10 @@
         <v>17</v>
       </c>
       <c r="D19" t="n">
-        <v>1553.130592089394</v>
+        <v>1466.372441163561</v>
       </c>
       <c r="E19" t="n">
-        <v>4122</v>
+        <v>3617</v>
       </c>
     </row>
     <row r="20">
@@ -772,10 +772,10 @@
         <v>18</v>
       </c>
       <c r="D20" t="n">
-        <v>1461.581391484817</v>
+        <v>1414.486700357285</v>
       </c>
       <c r="E20" t="n">
-        <v>3792</v>
+        <v>3308</v>
       </c>
     </row>
     <row r="21">
@@ -789,10 +789,10 @@
         <v>19</v>
       </c>
       <c r="D21" t="n">
-        <v>1320.464461528226</v>
+        <v>1317.057523448703</v>
       </c>
       <c r="E21" t="n">
-        <v>3200</v>
+        <v>2943</v>
       </c>
     </row>
     <row r="22">
@@ -806,10 +806,10 @@
         <v>20</v>
       </c>
       <c r="D22" t="n">
-        <v>1168.703466281979</v>
+        <v>1211.140009579147</v>
       </c>
       <c r="E22" t="n">
-        <v>2461</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="23">
@@ -823,10 +823,10 @@
         <v>21</v>
       </c>
       <c r="D23" t="n">
-        <v>1085.037349135435</v>
+        <v>1172.694111346357</v>
       </c>
       <c r="E23" t="n">
-        <v>1622</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="24">
@@ -840,10 +840,10 @@
         <v>22</v>
       </c>
       <c r="D24" t="n">
-        <v>1126.804116985131</v>
+        <v>1257.829862156089</v>
       </c>
       <c r="E24" t="n">
-        <v>500</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25">
@@ -857,10 +857,10 @@
         <v>23</v>
       </c>
       <c r="D25" t="n">
-        <v>1226.02488593728</v>
+        <v>1394.916035606086</v>
       </c>
       <c r="E25" t="n">
-        <v>166</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26">
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1272.028125337716</v>
+        <v>1467.683161109641</v>
       </c>
       <c r="E26" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27">
@@ -891,10 +891,10 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>1261.447113724199</v>
+        <v>1471.981333942389</v>
       </c>
       <c r="E27" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
@@ -908,10 +908,10 @@
         <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>1251.470477328405</v>
+        <v>1464.983997537576</v>
       </c>
       <c r="E28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -925,10 +925,10 @@
         <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>1247.143924499316</v>
+        <v>1451.942210097961</v>
       </c>
       <c r="E29" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -942,7 +942,7 @@
         <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>1197.871196543905</v>
+        <v>1381.63082197849</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -959,10 +959,10 @@
         <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>1213.932683624921</v>
+        <v>1369.353534504563</v>
       </c>
       <c r="E31" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32">
@@ -976,10 +976,10 @@
         <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>1203.860975789474</v>
+        <v>1322.481027067671</v>
       </c>
       <c r="E32" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
@@ -993,10 +993,10 @@
         <v>7</v>
       </c>
       <c r="D33" t="n">
-        <v>1159.83917371858</v>
+        <v>1236.194018089836</v>
       </c>
       <c r="E33" t="n">
-        <v>58</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
@@ -1010,10 +1010,10 @@
         <v>8</v>
       </c>
       <c r="D34" t="n">
-        <v>1114.121363151188</v>
+        <v>1146.705582036253</v>
       </c>
       <c r="E34" t="n">
-        <v>367</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35">
@@ -1027,10 +1027,10 @@
         <v>9</v>
       </c>
       <c r="D35" t="n">
-        <v>1138.310940198766</v>
+        <v>1128.801124390983</v>
       </c>
       <c r="E35" t="n">
-        <v>831</v>
+        <v>887</v>
       </c>
     </row>
     <row r="36">
@@ -1044,10 +1044,10 @@
         <v>10</v>
       </c>
       <c r="D36" t="n">
-        <v>1282.622043658176</v>
+        <v>1237.166767530521</v>
       </c>
       <c r="E36" t="n">
-        <v>2339</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="37">
@@ -1061,10 +1061,10 @@
         <v>11</v>
       </c>
       <c r="D37" t="n">
-        <v>1472.431722911155</v>
+        <v>1398.596076158864</v>
       </c>
       <c r="E37" t="n">
-        <v>2900</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="38">
@@ -1078,10 +1078,10 @@
         <v>12</v>
       </c>
       <c r="D38" t="n">
-        <v>1591.332177658084</v>
+        <v>1495.199333112726</v>
       </c>
       <c r="E38" t="n">
-        <v>3671</v>
+        <v>3713</v>
       </c>
     </row>
     <row r="39">
@@ -1095,10 +1095,10 @@
         <v>13</v>
       </c>
       <c r="D39" t="n">
-        <v>1631.488681603702</v>
+        <v>1521.268671594276</v>
       </c>
       <c r="E39" t="n">
-        <v>3996</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="40">
@@ -1112,10 +1112,10 @@
         <v>14</v>
       </c>
       <c r="D40" t="n">
-        <v>1647.16060109091</v>
+        <v>1532.583167161759</v>
       </c>
       <c r="E40" t="n">
-        <v>3932</v>
+        <v>4113</v>
       </c>
     </row>
     <row r="41">
@@ -1129,10 +1129,10 @@
         <v>15</v>
       </c>
       <c r="D41" t="n">
-        <v>1642.167490193977</v>
+        <v>1533.251848740334</v>
       </c>
       <c r="E41" t="n">
-        <v>3886</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="42">
@@ -1146,10 +1146,10 @@
         <v>16</v>
       </c>
       <c r="D42" t="n">
-        <v>1566.439423190192</v>
+        <v>1471.230445459103</v>
       </c>
       <c r="E42" t="n">
-        <v>3775</v>
+        <v>3684</v>
       </c>
     </row>
     <row r="43">
@@ -1163,10 +1163,10 @@
         <v>17</v>
       </c>
       <c r="D43" t="n">
-        <v>1532.468874857624</v>
+        <v>1461.374525421223</v>
       </c>
       <c r="E43" t="n">
-        <v>3334</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="44">
@@ -1180,10 +1180,10 @@
         <v>18</v>
       </c>
       <c r="D44" t="n">
-        <v>1452.509935113095</v>
+        <v>1411.000454283526</v>
       </c>
       <c r="E44" t="n">
-        <v>3130</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="45">
@@ -1197,10 +1197,10 @@
         <v>19</v>
       </c>
       <c r="D45" t="n">
-        <v>1323.704284895928</v>
+        <v>1315.624989444812</v>
       </c>
       <c r="E45" t="n">
-        <v>2630</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="46">
@@ -1214,10 +1214,10 @@
         <v>20</v>
       </c>
       <c r="D46" t="n">
-        <v>1184.153001273589</v>
+        <v>1212.158529875456</v>
       </c>
       <c r="E46" t="n">
-        <v>2098</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="47">
@@ -1231,10 +1231,10 @@
         <v>21</v>
       </c>
       <c r="D47" t="n">
-        <v>1111.794200818626</v>
+        <v>1176.392791894089</v>
       </c>
       <c r="E47" t="n">
-        <v>1237</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="48">
@@ -1248,10 +1248,10 @@
         <v>22</v>
       </c>
       <c r="D48" t="n">
-        <v>1163.239072640835</v>
+        <v>1264.257517201276</v>
       </c>
       <c r="E48" t="n">
-        <v>353</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49">
@@ -1265,10 +1265,10 @@
         <v>23</v>
       </c>
       <c r="D49" t="n">
-        <v>1269.902349418871</v>
+        <v>1403.9412003304</v>
       </c>
       <c r="E49" t="n">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50">
@@ -1282,10 +1282,10 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>1320.664207928631</v>
+        <v>1479.005955854241</v>
       </c>
       <c r="E50" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51">
@@ -1299,10 +1299,10 @@
         <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>1311.894297839734</v>
+        <v>1485.156188259034</v>
       </c>
       <c r="E51" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52">
@@ -1316,10 +1316,10 @@
         <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>1300.716225688374</v>
+        <v>1479.451546092719</v>
       </c>
       <c r="E52" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
@@ -1333,10 +1333,10 @@
         <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>1292.309922131727</v>
+        <v>1467.068099648175</v>
       </c>
       <c r="E53" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
@@ -1350,7 +1350,7 @@
         <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>1236.400115476015</v>
+        <v>1396.748754691139</v>
       </c>
       <c r="E54" t="n">
         <v>2</v>
@@ -1367,10 +1367,10 @@
         <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>1243.750420786525</v>
+        <v>1383.80964219072</v>
       </c>
       <c r="E55" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
@@ -1384,10 +1384,10 @@
         <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>1223.50414802832</v>
+        <v>1335.676635317402</v>
       </c>
       <c r="E56" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57">
@@ -1401,10 +1401,10 @@
         <v>7</v>
       </c>
       <c r="D57" t="n">
-        <v>1168.540125211653</v>
+        <v>1247.624017705129</v>
       </c>
       <c r="E57" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58">
@@ -1418,10 +1418,10 @@
         <v>8</v>
       </c>
       <c r="D58" t="n">
-        <v>1111.845875716391</v>
+        <v>1155.9899636639</v>
       </c>
       <c r="E58" t="n">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="59">
@@ -1435,10 +1435,10 @@
         <v>9</v>
       </c>
       <c r="D59" t="n">
-        <v>1125.74703459743</v>
+        <v>1135.707725394247</v>
       </c>
       <c r="E59" t="n">
-        <v>626</v>
+        <v>645</v>
       </c>
     </row>
     <row r="60">
@@ -1452,10 +1452,10 @@
         <v>10</v>
       </c>
       <c r="D60" t="n">
-        <v>1261.12150490401</v>
+        <v>1241.623892721769</v>
       </c>
       <c r="E60" t="n">
-        <v>994</v>
+        <v>974</v>
       </c>
     </row>
     <row r="61">
@@ -1469,10 +1469,10 @@
         <v>11</v>
       </c>
       <c r="D61" t="n">
-        <v>1443.909060670138</v>
+        <v>1400.694343638972</v>
       </c>
       <c r="E61" t="n">
-        <v>1221</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="62">
@@ -1486,10 +1486,10 @@
         <v>12</v>
       </c>
       <c r="D62" t="n">
-        <v>1558.128444738037</v>
+        <v>1495.18281641329</v>
       </c>
       <c r="E62" t="n">
-        <v>1604</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="63">
@@ -1503,10 +1503,10 @@
         <v>13</v>
       </c>
       <c r="D63" t="n">
-        <v>1596.209747719192</v>
+        <v>1519.516111723115</v>
       </c>
       <c r="E63" t="n">
-        <v>1767</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="64">
@@ -1520,10 +1520,10 @@
         <v>14</v>
       </c>
       <c r="D64" t="n">
-        <v>1612.500982473553</v>
+        <v>1529.580667147226</v>
       </c>
       <c r="E64" t="n">
-        <v>1655</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="65">
@@ -1537,10 +1537,10 @@
         <v>15</v>
       </c>
       <c r="D65" t="n">
-        <v>1610.73158166444</v>
+        <v>1529.558997980233</v>
       </c>
       <c r="E65" t="n">
-        <v>1745</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="66">
@@ -1554,10 +1554,10 @@
         <v>16</v>
       </c>
       <c r="D66" t="n">
-        <v>1540.57193285647</v>
+        <v>1467.442218316483</v>
       </c>
       <c r="E66" t="n">
-        <v>1842</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="67">
@@ -1571,10 +1571,10 @@
         <v>17</v>
       </c>
       <c r="D67" t="n">
-        <v>1514.105440239288</v>
+        <v>1458.081534421958</v>
       </c>
       <c r="E67" t="n">
-        <v>1899</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="68">
@@ -1588,10 +1588,10 @@
         <v>18</v>
       </c>
       <c r="D68" t="n">
-        <v>1443.05737142021</v>
+        <v>1408.750200331312</v>
       </c>
       <c r="E68" t="n">
-        <v>1939</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="69">
@@ -1605,10 +1605,10 @@
         <v>19</v>
       </c>
       <c r="D69" t="n">
-        <v>1323.957794830376</v>
+        <v>1314.8866387046</v>
       </c>
       <c r="E69" t="n">
-        <v>1621</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="70">
@@ -1622,10 +1622,10 @@
         <v>20</v>
       </c>
       <c r="D70" t="n">
-        <v>1194.255111410475</v>
+        <v>1213.293469923893</v>
       </c>
       <c r="E70" t="n">
-        <v>1496</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="71">
@@ -1639,10 +1639,10 @@
         <v>21</v>
       </c>
       <c r="D71" t="n">
-        <v>1131.237359070636</v>
+        <v>1179.632799544789</v>
       </c>
       <c r="E71" t="n">
-        <v>934</v>
+        <v>976</v>
       </c>
     </row>
     <row r="72">
@@ -1656,10 +1656,10 @@
         <v>22</v>
       </c>
       <c r="D72" t="n">
-        <v>1190.910935476649</v>
+        <v>1269.691837265544</v>
       </c>
       <c r="E72" t="n">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73">
@@ -1673,10 +1673,10 @@
         <v>23</v>
       </c>
       <c r="D73" t="n">
-        <v>1304.169998813093</v>
+        <v>1411.513225538696</v>
       </c>
       <c r="E73" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74">
@@ -1690,10 +1690,10 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>1359.491047651226</v>
+        <v>1488.519554635241</v>
       </c>
       <c r="E74" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75">
@@ -1707,10 +1707,10 @@
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>1352.981344899147</v>
+        <v>1496.291091974412</v>
       </c>
       <c r="E75" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76">
@@ -1724,10 +1724,10 @@
         <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>1341.658060857991</v>
+        <v>1491.786622258533</v>
       </c>
       <c r="E76" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77">
@@ -1741,10 +1741,10 @@
         <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>1330.754778293886</v>
+        <v>1480.110840206982</v>
       </c>
       <c r="E77" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -1758,10 +1758,10 @@
         <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>1270.203503407154</v>
+        <v>1409.968929671642</v>
       </c>
       <c r="E78" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79">
@@ -1775,10 +1775,10 @@
         <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>1271.112311235539</v>
+        <v>1396.674831879933</v>
       </c>
       <c r="E79" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80">
@@ -1792,10 +1792,10 @@
         <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>1243.080992993735</v>
+        <v>1347.687271439989</v>
       </c>
       <c r="E80" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81">
@@ -1809,10 +1809,10 @@
         <v>7</v>
       </c>
       <c r="D81" t="n">
-        <v>1179.52481527721</v>
+        <v>1258.345638725533</v>
       </c>
       <c r="E81" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82">
@@ -1826,10 +1826,10 @@
         <v>8</v>
       </c>
       <c r="D82" t="n">
-        <v>1114.010964823311</v>
+        <v>1165.08061348341</v>
       </c>
       <c r="E82" t="n">
-        <v>284</v>
+        <v>329</v>
       </c>
     </row>
     <row r="83">
@@ -1843,10 +1843,10 @@
         <v>9</v>
       </c>
       <c r="D83" t="n">
-        <v>1119.44906410229</v>
+        <v>1142.938780998794</v>
       </c>
       <c r="E83" t="n">
-        <v>654</v>
+        <v>617</v>
       </c>
     </row>
     <row r="84">
@@ -1860,10 +1860,10 @@
         <v>10</v>
       </c>
       <c r="D84" t="n">
-        <v>1247.266855931551</v>
+        <v>1246.893068963224</v>
       </c>
       <c r="E84" t="n">
-        <v>1154</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="85">
@@ -1877,10 +1877,10 @@
         <v>11</v>
       </c>
       <c r="D85" t="n">
-        <v>1423.884285105541</v>
+        <v>1404.030159988995</v>
       </c>
       <c r="E85" t="n">
-        <v>1339</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="86">
@@ -1894,10 +1894,10 @@
         <v>12</v>
       </c>
       <c r="D86" t="n">
-        <v>1533.700306346212</v>
+        <v>1496.740384610894</v>
       </c>
       <c r="E86" t="n">
-        <v>1596</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="87">
@@ -1911,10 +1911,10 @@
         <v>13</v>
       </c>
       <c r="D87" t="n">
-        <v>1569.402100267039</v>
+        <v>1519.564676335261</v>
       </c>
       <c r="E87" t="n">
-        <v>1662</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="88">
@@ -1928,10 +1928,10 @@
         <v>14</v>
       </c>
       <c r="D88" t="n">
-        <v>1585.457003831748</v>
+        <v>1528.483865517251</v>
       </c>
       <c r="E88" t="n">
-        <v>1806</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="89">
@@ -1945,10 +1945,10 @@
         <v>15</v>
       </c>
       <c r="D89" t="n">
-        <v>1585.570689387058</v>
+        <v>1527.749267406353</v>
       </c>
       <c r="E89" t="n">
-        <v>1762</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="90">
@@ -1962,10 +1962,10 @@
         <v>16</v>
       </c>
       <c r="D90" t="n">
-        <v>1519.250885394576</v>
+        <v>1465.391137557129</v>
       </c>
       <c r="E90" t="n">
-        <v>1779</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="91">
@@ -1979,10 +1979,10 @@
         <v>17</v>
       </c>
       <c r="D91" t="n">
-        <v>1498.292678505688</v>
+        <v>1456.268121973097</v>
       </c>
       <c r="E91" t="n">
-        <v>1585</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="92">
@@ -1996,10 +1996,10 @@
         <v>18</v>
       </c>
       <c r="D92" t="n">
-        <v>1434.028618950515</v>
+        <v>1407.629290105168</v>
       </c>
       <c r="E92" t="n">
-        <v>1835</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="93">
@@ -2013,10 +2013,10 @@
         <v>19</v>
       </c>
       <c r="D93" t="n">
-        <v>1322.519390183847</v>
+        <v>1314.859410755706</v>
       </c>
       <c r="E93" t="n">
-        <v>1882</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="94">
@@ -2030,10 +2030,10 @@
         <v>20</v>
       </c>
       <c r="D94" t="n">
-        <v>1200.699604584747</v>
+        <v>1214.682035065483</v>
       </c>
       <c r="E94" t="n">
-        <v>1617</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="95">
@@ -2047,10 +2047,10 @@
         <v>21</v>
       </c>
       <c r="D95" t="n">
-        <v>1145.333699513824</v>
+        <v>1182.660436258115</v>
       </c>
       <c r="E95" t="n">
-        <v>1060</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="96">
@@ -2064,10 +2064,10 @@
         <v>22</v>
       </c>
       <c r="D96" t="n">
-        <v>1211.929262485903</v>
+        <v>1274.470079151716</v>
       </c>
       <c r="E96" t="n">
-        <v>174</v>
+        <v>143</v>
       </c>
     </row>
     <row r="97">
@@ -2081,10 +2081,10 @@
         <v>23</v>
       </c>
       <c r="D97" t="n">
-        <v>1330.938770085594</v>
+        <v>1418.036525785591</v>
       </c>
       <c r="E97" t="n">
-        <v>82</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98">
@@ -2098,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>1390.482157300114</v>
+        <v>1496.66774286616</v>
       </c>
       <c r="E98" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="99">
@@ -2115,10 +2115,10 @@
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>1386.417121904646</v>
+        <v>1505.83932271405</v>
       </c>
       <c r="E99" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100">
@@ -2132,7 +2132,7 @@
         <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>1375.632712478206</v>
+        <v>1502.422027116554</v>
       </c>
       <c r="E100" t="n">
         <v>3</v>
@@ -2149,10 +2149,10 @@
         <v>3</v>
       </c>
       <c r="D101" t="n">
-        <v>1363.362029657614</v>
+        <v>1491.45466924684</v>
       </c>
       <c r="E101" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102">
@@ -2166,7 +2166,7 @@
         <v>4</v>
       </c>
       <c r="D102" t="n">
-        <v>1299.661928411582</v>
+        <v>1421.602628268584</v>
       </c>
       <c r="E102" t="n">
         <v>5</v>
@@ -2183,10 +2183,10 @@
         <v>5</v>
       </c>
       <c r="D103" t="n">
-        <v>1295.880157594461</v>
+        <v>1408.168268411404</v>
       </c>
       <c r="E103" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104">
@@ -2200,10 +2200,10 @@
         <v>6</v>
       </c>
       <c r="D104" t="n">
-        <v>1261.95314525851</v>
+        <v>1358.627221644122</v>
       </c>
       <c r="E104" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105">
@@ -2217,10 +2217,10 @@
         <v>7</v>
       </c>
       <c r="D105" t="n">
-        <v>1191.705848817979</v>
+        <v>1268.362649537797</v>
       </c>
       <c r="E105" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106">
@@ -2234,10 +2234,10 @@
         <v>8</v>
       </c>
       <c r="D106" t="n">
-        <v>1119.1599264604</v>
+        <v>1173.872509241861</v>
       </c>
       <c r="E106" t="n">
-        <v>269</v>
+        <v>307</v>
       </c>
     </row>
     <row r="107">
@@ -2251,10 +2251,10 @@
         <v>9</v>
       </c>
       <c r="D107" t="n">
-        <v>1117.693553844028</v>
+        <v>1150.28932668555</v>
       </c>
       <c r="E107" t="n">
-        <v>706</v>
+        <v>750</v>
       </c>
     </row>
     <row r="108">
@@ -2268,10 +2268,10 @@
         <v>10</v>
       </c>
       <c r="D108" t="n">
-        <v>1239.186046951766</v>
+        <v>1252.684650075798</v>
       </c>
       <c r="E108" t="n">
-        <v>1134</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="109">
@@ -2285,10 +2285,10 @@
         <v>11</v>
       </c>
       <c r="D109" t="n">
-        <v>1410.462567805404</v>
+        <v>1408.249752369318</v>
       </c>
       <c r="E109" t="n">
-        <v>1384</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="110">
@@ -2302,10 +2302,10 @@
         <v>12</v>
       </c>
       <c r="D110" t="n">
-        <v>1516.255142660931</v>
+        <v>1499.478541673276</v>
       </c>
       <c r="E110" t="n">
-        <v>1641</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="111">
@@ -2319,10 +2319,10 @@
         <v>13</v>
       </c>
       <c r="D111" t="n">
-        <v>1549.491304088793</v>
+        <v>1521.007725051455</v>
       </c>
       <c r="E111" t="n">
-        <v>1850</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="112">
@@ -2336,10 +2336,10 @@
         <v>14</v>
       </c>
       <c r="D112" t="n">
-        <v>1564.771920347777</v>
+        <v>1528.899945563506</v>
       </c>
       <c r="E112" t="n">
-        <v>1845</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="113">
@@ -2353,10 +2353,10 @@
         <v>15</v>
       </c>
       <c r="D113" t="n">
-        <v>1565.822554478586</v>
+        <v>1527.469241300231</v>
       </c>
       <c r="E113" t="n">
-        <v>1771</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="114">
@@ -2370,10 +2370,10 @@
         <v>16</v>
       </c>
       <c r="D114" t="n">
-        <v>1502.057961091088</v>
+        <v>1464.785718433487</v>
       </c>
       <c r="E114" t="n">
-        <v>1738</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="115">
@@ -2387,10 +2387,10 @@
         <v>17</v>
       </c>
       <c r="D115" t="n">
-        <v>1485.075570190148</v>
+        <v>1455.722790242336</v>
       </c>
       <c r="E115" t="n">
-        <v>1641</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="116">
@@ -2404,10 +2404,10 @@
         <v>18</v>
       </c>
       <c r="D116" t="n">
-        <v>1425.920506337195</v>
+        <v>1407.518687521291</v>
       </c>
       <c r="E116" t="n">
-        <v>1882</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="117">
@@ -2421,10 +2421,10 @@
         <v>19</v>
       </c>
       <c r="D117" t="n">
-        <v>1320.296800193384</v>
+        <v>1315.522904604067</v>
       </c>
       <c r="E117" t="n">
-        <v>1845</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="118">
@@ -2438,10 +2438,10 @@
         <v>20</v>
       </c>
       <c r="D118" t="n">
-        <v>1204.737900581573</v>
+        <v>1216.402038006509</v>
       </c>
       <c r="E118" t="n">
-        <v>1721</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="119">
@@ -2455,10 +2455,10 @@
         <v>21</v>
       </c>
       <c r="D119" t="n">
-        <v>1155.58975992871</v>
+        <v>1185.644857869353</v>
       </c>
       <c r="E119" t="n">
-        <v>1095</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="120">
@@ -2472,10 +2472,10 @@
         <v>22</v>
       </c>
       <c r="D120" t="n">
-        <v>1227.951989020454</v>
+        <v>1278.83998899719</v>
       </c>
       <c r="E120" t="n">
-        <v>353</v>
+        <v>113</v>
       </c>
     </row>
     <row r="121">
@@ -2489,7 +2489,7 @@
         <v>23</v>
       </c>
       <c r="D121" t="n">
-        <v>1351.90622438836</v>
+        <v>1423.819745931829</v>
       </c>
       <c r="E121" t="n">
         <v>97</v>
@@ -2506,10 +2506,10 @@
         <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>1415.262396422233</v>
+        <v>1503.79868512473</v>
       </c>
       <c r="E122" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="123">
@@ -2523,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="D123" t="n">
-        <v>1413.64829855968</v>
+        <v>1514.164969719076</v>
       </c>
       <c r="E123" t="n">
-        <v>22</v>
+        <v>54</v>
       </c>
     </row>
     <row r="124">
@@ -2540,7 +2540,7 @@
         <v>2</v>
       </c>
       <c r="D124" t="n">
-        <v>1403.816820927847</v>
+        <v>1511.713554243877</v>
       </c>
       <c r="E124" t="n">
         <v>6</v>
@@ -2557,10 +2557,10 @@
         <v>3</v>
       </c>
       <c r="D125" t="n">
-        <v>1390.965883988991</v>
+        <v>1501.423842532695</v>
       </c>
       <c r="E125" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
@@ -2574,10 +2574,10 @@
         <v>4</v>
       </c>
       <c r="D126" t="n">
-        <v>1325.218602093636</v>
+        <v>1431.921814958924</v>
       </c>
       <c r="E126" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127">
@@ -2591,10 +2591,10 @@
         <v>5</v>
       </c>
       <c r="D127" t="n">
-        <v>1318.084207030212</v>
+        <v>1418.492680062509</v>
       </c>
       <c r="E127" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128">
@@ -2608,10 +2608,10 @@
         <v>6</v>
       </c>
       <c r="D128" t="n">
-        <v>1279.743471135931</v>
+        <v>1368.617887585504</v>
       </c>
       <c r="E128" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129">
@@ -2625,10 +2625,10 @@
         <v>7</v>
       </c>
       <c r="D129" t="n">
-        <v>1204.330974472584</v>
+        <v>1277.708597337071</v>
       </c>
       <c r="E129" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130">
@@ -2642,10 +2642,10 @@
         <v>8</v>
       </c>
       <c r="D130" t="n">
-        <v>1126.221724129039</v>
+        <v>1182.310708166063</v>
       </c>
       <c r="E130" t="n">
-        <v>313</v>
+        <v>286</v>
       </c>
     </row>
     <row r="131">
@@ -2659,10 +2659,10 @@
         <v>9</v>
       </c>
       <c r="D131" t="n">
-        <v>1119.166939342642</v>
+        <v>1157.621123021257</v>
       </c>
       <c r="E131" t="n">
-        <v>691</v>
+        <v>653</v>
       </c>
     </row>
     <row r="132">
@@ -2676,10 +2676,10 @@
         <v>10</v>
       </c>
       <c r="D132" t="n">
-        <v>1235.413788653738</v>
+        <v>1258.78767651557</v>
       </c>
       <c r="E132" t="n">
-        <v>1183</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="133">
@@ -2693,10 +2693,10 @@
         <v>11</v>
       </c>
       <c r="D133" t="n">
-        <v>1402.126007490484</v>
+        <v>1413.084609401137</v>
       </c>
       <c r="E133" t="n">
-        <v>1248</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="134">
@@ -2710,10 +2710,10 @@
         <v>12</v>
       </c>
       <c r="D134" t="n">
-        <v>1504.323194778973</v>
+        <v>1503.089905151478</v>
       </c>
       <c r="E134" t="n">
-        <v>1579</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="135">
@@ -2727,10 +2727,10 @@
         <v>13</v>
       </c>
       <c r="D135" t="n">
-        <v>1535.151484607165</v>
+        <v>1523.519906738355</v>
       </c>
       <c r="E135" t="n">
-        <v>1733</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="136">
@@ -2744,10 +2744,10 @@
         <v>14</v>
       </c>
       <c r="D136" t="n">
-        <v>1549.34826897875</v>
+        <v>1530.507297621994</v>
       </c>
       <c r="E136" t="n">
-        <v>1757</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="137">
@@ -2761,10 +2761,10 @@
         <v>15</v>
       </c>
       <c r="D137" t="n">
-        <v>1550.686086554324</v>
+        <v>1528.422127697116</v>
       </c>
       <c r="E137" t="n">
-        <v>1737</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="138">
@@ -2778,10 +2778,10 @@
         <v>16</v>
       </c>
       <c r="D138" t="n">
-        <v>1488.535673122517</v>
+        <v>1465.373054732038</v>
       </c>
       <c r="E138" t="n">
-        <v>1856</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="139">
@@ -2795,10 +2795,10 @@
         <v>17</v>
       </c>
       <c r="D139" t="n">
-        <v>1474.364007773148</v>
+        <v>1456.252360965439</v>
       </c>
       <c r="E139" t="n">
-        <v>1664</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="140">
@@ -2812,10 +2812,10 @@
         <v>18</v>
       </c>
       <c r="D140" t="n">
-        <v>1419.009492957904</v>
+        <v>1408.296574764684</v>
       </c>
       <c r="E140" t="n">
-        <v>1937</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="141">
@@ -2829,10 +2829,10 @@
         <v>19</v>
       </c>
       <c r="D141" t="n">
-        <v>1317.9081548333</v>
+        <v>1316.83339617435</v>
       </c>
       <c r="E141" t="n">
-        <v>2001</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="142">
@@ -2846,10 +2846,10 @@
         <v>20</v>
       </c>
       <c r="D142" t="n">
-        <v>1207.282898107494</v>
+        <v>1218.489327383311</v>
       </c>
       <c r="E142" t="n">
-        <v>1670</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="143">
@@ -2863,10 +2863,10 @@
         <v>21</v>
       </c>
       <c r="D143" t="n">
-        <v>1163.147787234163</v>
+        <v>1188.697707043473</v>
       </c>
       <c r="E143" t="n">
-        <v>1121</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="144">
@@ -2880,10 +2880,10 @@
         <v>22</v>
       </c>
       <c r="D144" t="n">
-        <v>1240.271411459681</v>
+        <v>1282.980309526397</v>
       </c>
       <c r="E144" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="145">
@@ -2897,10 +2897,10 @@
         <v>23</v>
       </c>
       <c r="D145" t="n">
-        <v>1368.426998295417</v>
+        <v>1429.095778894963</v>
       </c>
       <c r="E145" t="n">
-        <v>81</v>
+        <v>108</v>
       </c>
     </row>
     <row r="146">
@@ -2914,10 +2914,10 @@
         <v>0</v>
       </c>
       <c r="D146" t="n">
-        <v>1435.158542391325</v>
+        <v>1510.1831461529</v>
       </c>
       <c r="E146" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="147">
@@ -2931,10 +2931,10 @@
         <v>1</v>
       </c>
       <c r="D147" t="n">
-        <v>1435.887079048635</v>
+        <v>1521.558192327818</v>
       </c>
       <c r="E147" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="148">
@@ -2948,10 +2948,10 @@
         <v>2</v>
       </c>
       <c r="D148" t="n">
-        <v>1427.230425449568</v>
+        <v>1519.951335500836</v>
       </c>
       <c r="E148" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="149">
@@ -2965,10 +2965,10 @@
         <v>3</v>
       </c>
       <c r="D149" t="n">
-        <v>1414.330679834703</v>
+        <v>1510.289391245798</v>
       </c>
       <c r="E149" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150">
@@ -2982,10 +2982,10 @@
         <v>4</v>
       </c>
       <c r="D150" t="n">
-        <v>1347.336601776803</v>
+        <v>1441.160943582876</v>
       </c>
       <c r="E150" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151">
@@ -2999,10 +2999,10 @@
         <v>5</v>
       </c>
       <c r="D151" t="n">
-        <v>1337.861355984117</v>
+        <v>1427.831183621155</v>
       </c>
       <c r="E151" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152">
@@ -3016,10 +3016,10 @@
         <v>6</v>
       </c>
       <c r="D152" t="n">
-        <v>1296.259667189609</v>
+        <v>1377.779928013022</v>
       </c>
       <c r="E152" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="153">
@@ -3033,10 +3033,10 @@
         <v>7</v>
       </c>
       <c r="D153" t="n">
-        <v>1216.897367500042</v>
+        <v>1286.434866657994</v>
       </c>
       <c r="E153" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="154">
@@ -3050,10 +3050,10 @@
         <v>8</v>
       </c>
       <c r="D154" t="n">
-        <v>1134.421762116091</v>
+        <v>1190.375180392254</v>
       </c>
       <c r="E154" t="n">
-        <v>308</v>
+        <v>335</v>
       </c>
     </row>
     <row r="155">
@@ -3067,10 +3067,10 @@
         <v>9</v>
       </c>
       <c r="D155" t="n">
-        <v>1122.878760451171</v>
+        <v>1164.84531869089</v>
       </c>
       <c r="E155" t="n">
-        <v>758</v>
+        <v>762</v>
       </c>
     </row>
     <row r="156">
@@ -3084,10 +3084,10 @@
         <v>10</v>
       </c>
       <c r="D156" t="n">
-        <v>1234.812829225976</v>
+        <v>1265.051546550861</v>
       </c>
       <c r="E156" t="n">
-        <v>1149</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="157">
@@ -3101,10 +3101,10 @@
         <v>11</v>
       </c>
       <c r="D157" t="n">
-        <v>1397.66801729748</v>
+        <v>1418.333383175933</v>
       </c>
       <c r="E157" t="n">
-        <v>1437</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="158">
@@ -3118,10 +3118,10 @@
         <v>12</v>
       </c>
       <c r="D158" t="n">
-        <v>1496.709135373907</v>
+        <v>1507.336524685131</v>
       </c>
       <c r="E158" t="n">
-        <v>1880</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="159">
@@ -3135,10 +3135,10 @@
         <v>13</v>
       </c>
       <c r="D159" t="n">
-        <v>1525.276950621282</v>
+        <v>1526.842965863081</v>
       </c>
       <c r="E159" t="n">
-        <v>1869</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="160">
@@ -3152,10 +3152,10 @@
         <v>14</v>
       </c>
       <c r="D160" t="n">
-        <v>1538.24104128435</v>
+        <v>1533.044701930683</v>
       </c>
       <c r="E160" t="n">
-        <v>1900</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="161">
@@ -3169,10 +3169,10 @@
         <v>15</v>
       </c>
       <c r="D161" t="n">
-        <v>1539.436140279385</v>
+        <v>1530.360968544292</v>
       </c>
       <c r="E161" t="n">
-        <v>1939</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="162">
@@ -3186,10 +3186,10 @@
         <v>16</v>
       </c>
       <c r="D162" t="n">
-        <v>1478.222380267666</v>
+        <v>1466.936430639716</v>
       </c>
       <c r="E162" t="n">
-        <v>2070</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="163">
@@ -3203,10 +3203,10 @@
         <v>17</v>
       </c>
       <c r="D163" t="n">
-        <v>1465.985371705993</v>
+        <v>1457.68406736288</v>
       </c>
       <c r="E163" t="n">
-        <v>2008</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="164">
@@ -3220,10 +3220,10 @@
         <v>18</v>
       </c>
       <c r="D164" t="n">
-        <v>1413.418029784382</v>
+        <v>1409.844706673174</v>
       </c>
       <c r="E164" t="n">
-        <v>2200</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="165">
@@ -3237,10 +3237,10 @@
         <v>19</v>
       </c>
       <c r="D165" t="n">
-        <v>1315.75751504732</v>
+        <v>1318.733961245807</v>
       </c>
       <c r="E165" t="n">
-        <v>1972</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="166">
@@ -3254,10 +3254,10 @@
         <v>20</v>
       </c>
       <c r="D166" t="n">
-        <v>1208.988540777903</v>
+        <v>1220.950946410457</v>
       </c>
       <c r="E166" t="n">
-        <v>2020</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="167">
@@ -3271,10 +3271,10 @@
         <v>21</v>
       </c>
       <c r="D167" t="n">
-        <v>1168.864034414776</v>
+        <v>1191.888388319581</v>
       </c>
       <c r="E167" t="n">
-        <v>1343</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="168">
@@ -3288,10 +3288,10 @@
         <v>22</v>
       </c>
       <c r="D168" t="n">
-        <v>1249.886090961458</v>
+        <v>1287.017129468408</v>
       </c>
       <c r="E168" t="n">
-        <v>214</v>
+        <v>257</v>
       </c>
     </row>
     <row r="169">
@@ -3305,10 +3305,10 @@
         <v>23</v>
       </c>
       <c r="D169" t="n">
-        <v>1381.57370451586</v>
+        <v>1434.038095406803</v>
       </c>
       <c r="E169" t="n">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
